--- a/public/2024/11/04/does-harry-brownes-permanent-portfolio-withstand-the-test-of-time/Stocks_Bonds_Gold_Cash_Summary_Stats.xlsx
+++ b/public/2024/11/04/does-harry-brownes-permanent-portfolio-withstand-the-test-of-time/Stocks_Bonds_Gold_Cash_Summary_Stats.xlsx
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08147276254248602</v>
+        <v>0.08099606663070097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0766497151411822</v>
+        <v>0.07261794055165294</v>
       </c>
       <c r="D2" t="n">
-        <v>1.062923226686755</v>
+        <v>1.115372675338936</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08169139718125717</v>
+        <v>0.08150085736763879</v>
       </c>
       <c r="F2" t="n">
         <v>0.02879420493358031</v>
@@ -530,16 +530,16 @@
         <v>43902</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1538209243972303</v>
+        <v>-0.127054529542041</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>39525</v>
+        <v>44557</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>39764</v>
+        <v>44854</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>40092</v>
+        <v>45261</v>
       </c>
     </row>
   </sheetData>

--- a/public/2024/11/04/does-harry-brownes-permanent-portfolio-withstand-the-test-of-time/Stocks_Bonds_Gold_Cash_Summary_Stats.xlsx
+++ b/public/2024/11/04/does-harry-brownes-permanent-portfolio-withstand-the-test-of-time/Stocks_Bonds_Gold_Cash_Summary_Stats.xlsx
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08099606663070097</v>
+        <v>0.0832436097472125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07261794055165294</v>
+        <v>0.07225116750359212</v>
       </c>
       <c r="D2" t="n">
-        <v>1.115372675338936</v>
+        <v>1.152142070826383</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08150085736763879</v>
+        <v>0.08395293441697915</v>
       </c>
       <c r="F2" t="n">
         <v>0.02879420493358031</v>
@@ -530,16 +530,16 @@
         <v>43902</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.127054529542041</v>
+        <v>-0.1538209243972309</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>44557</v>
+        <v>39525</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>44854</v>
+        <v>39764</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45261</v>
+        <v>40092</v>
       </c>
     </row>
   </sheetData>
